--- a/12월/12월의 Miracle.xlsx
+++ b/12월/12월의 Miracle.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INNOGRID\Documents\김수빈\miracle-morning\12월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\12월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A77E43-97A2-43A3-9B91-B204E5E7B001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,11 +68,19 @@
     <t>12월의 Miracle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -619,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,139 +679,271 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44531</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44532</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44533</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44536</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44537</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44538</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44539</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44540</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44543</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44544</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44545</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44546</v>
       </c>
@@ -816,7 +955,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44547</v>
       </c>
@@ -830,7 +969,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44550</v>
       </c>
@@ -842,7 +981,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44551</v>
       </c>
@@ -854,7 +993,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44552</v>
       </c>
@@ -866,7 +1005,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44553</v>
       </c>
@@ -878,7 +1017,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44554</v>
       </c>
@@ -892,7 +1031,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44557</v>
       </c>
@@ -904,7 +1043,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44558</v>
       </c>
@@ -916,7 +1055,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44559</v>
       </c>
@@ -928,7 +1067,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44560</v>
       </c>
@@ -940,7 +1079,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44561</v>
       </c>
@@ -956,32 +1095,32 @@
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="e">
-        <f>(COUNTIF(B3:B25,"O")/(COUNTA(B3:B25)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f t="shared" ref="C26:H26" si="0">(COUNTIF(C3:C25,"O")/(COUNTA(C3:C25)))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="8" t="e">
+      <c r="B26" s="8">
+        <f>(COUNTIF(B3:B13,"O")/(COUNTA(B3:B13)))</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:G26" si="0">(COUNTIF(C3:C13,"O")/(COUNTA(C3:C13)))</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="8" t="e">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="8" t="e">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H26" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C26:H26" si="1">(COUNTIF(H3:H25,"O")/(COUNTA(H3:H25)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/12월/12월의 Miracle.xlsx
+++ b/12월/12월의 Miracle.xlsx
@@ -41,14 +41,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문소민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>심재욱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이은별</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,6 +66,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문소민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심재욱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -684,22 +684,22 @@
         <v>44531</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -708,22 +708,22 @@
         <v>44532</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -732,22 +732,22 @@
         <v>44533</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -756,22 +756,22 @@
         <v>44536</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -780,22 +780,22 @@
         <v>44537</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -804,22 +804,22 @@
         <v>44538</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -828,22 +828,22 @@
         <v>44539</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -852,22 +852,22 @@
         <v>44540</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -876,22 +876,22 @@
         <v>44543</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -900,22 +900,22 @@
         <v>44544</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="10"/>
     </row>
@@ -924,22 +924,22 @@
         <v>44545</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="8" t="e">
-        <f t="shared" ref="C26:H26" si="1">(COUNTIF(H3:H25,"O")/(COUNTA(H3:H25)))</f>
+        <f t="shared" ref="H26" si="1">(COUNTIF(H3:H25,"O")/(COUNTA(H3:H25)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/12월/12월의 Miracle.xlsx
+++ b/12월/12월의 Miracle.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="10">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>박미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하태린</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -153,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,19 +199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -242,19 +225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -300,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,19 +283,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,13 +304,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,41 +594,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
@@ -675,473 +638,585 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>44531</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>44532</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>44533</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>44536</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>44537</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>44538</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>44539</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>44540</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>44543</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>44544</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>44545</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>44546</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>44547</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>44550</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>44551</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>44552</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>44553</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>44554</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="1"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="B20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>44557</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>44558</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="B22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>44559</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="B23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>44560</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>44561</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="8">
-        <f>(COUNTIF(B3:B13,"O")/(COUNTA(B3:B13)))</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" ref="C26:G26" si="0">(COUNTIF(C3:C13,"O")/(COUNTA(C3:C13)))</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="7">
+        <f>(COUNTIF(B3:B25,"O")/(COUNTA(B3:B25)))</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" ref="C26:G26" si="0">(COUNTIF(C3:C25,"O")/(COUNTA(C3:C25)))</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="E26" s="8">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="G26" s="8">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="e">
-        <f t="shared" ref="H26" si="1">(COUNTIF(H3:H25,"O")/(COUNTA(H3:H25)))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95652173913043481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1149,11 +1224,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
